--- a/reports/revenue_weather_models_slr_results.xlsx
+++ b/reports/revenue_weather_models_slr_results.xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="213">
   <si>
     <t>model_label</t>
   </si>
@@ -170,7 +170,7 @@
     <t>avg_base_passenger_fare_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>avg_base_passenger_fare_resid ~ demand_resid</t>
+    <t>avg_base_passenger_fare_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>avg_driver_pay_resid ~ rain_flag_lag0</t>
@@ -212,7 +212,7 @@
     <t>avg_driver_pay_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>avg_driver_pay_resid ~ demand_resid</t>
+    <t>avg_driver_pay_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>fare_per_mile_resid ~ rain_flag_lag0</t>
@@ -254,7 +254,7 @@
     <t>fare_per_mile_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>fare_per_mile_resid ~ demand_resid</t>
+    <t>fare_per_mile_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>fare_per_min_resid ~ rain_flag_lag0</t>
@@ -296,7 +296,7 @@
     <t>fare_per_min_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>fare_per_min_resid ~ demand_resid</t>
+    <t>fare_per_min_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>driverpay_per_mile_resid ~ rain_flag_lag0</t>
@@ -338,7 +338,7 @@
     <t>driverpay_per_mile_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>driverpay_per_mile_resid ~ demand_resid</t>
+    <t>driverpay_per_mile_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>driverpay_per_min_resid ~ rain_flag_lag0</t>
@@ -380,7 +380,7 @@
     <t>driverpay_per_min_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>driverpay_per_min_resid ~ demand_resid</t>
+    <t>driverpay_per_min_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>margin_per_mile_resid ~ rain_flag_lag0</t>
@@ -422,7 +422,7 @@
     <t>margin_per_mile_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>margin_per_mile_resid ~ demand_resid</t>
+    <t>margin_per_mile_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>driver_pay_pct_of_base_fare_resid ~ rain_flag_lag0</t>
@@ -464,7 +464,7 @@
     <t>driver_pay_pct_of_base_fare_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>driver_pay_pct_of_base_fare_resid ~ demand_resid</t>
+    <t>driver_pay_pct_of_base_fare_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>avg_trip_miles_resid ~ rain_flag_lag0</t>
@@ -506,7 +506,7 @@
     <t>avg_trip_miles_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>avg_trip_miles_resid ~ demand_resid</t>
+    <t>avg_trip_miles_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>avg_trip_time_min_resid ~ rain_flag_lag0</t>
@@ -548,7 +548,7 @@
     <t>avg_trip_time_min_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>avg_trip_time_min_resid ~ demand_resid</t>
+    <t>avg_trip_time_min_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>avg_speed_mph_resid ~ rain_flag_lag0</t>
@@ -590,7 +590,7 @@
     <t>avg_speed_mph_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>avg_speed_mph_resid ~ demand_resid</t>
+    <t>avg_speed_mph_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>median_speed_mph_resid ~ rain_flag_lag0</t>
@@ -632,7 +632,7 @@
     <t>median_speed_mph_resid ~ avg_trip_time_min</t>
   </si>
   <si>
-    <t>median_speed_mph_resid ~ demand_resid</t>
+    <t>median_speed_mph_resid ~ demand_resid_lag1</t>
   </si>
   <si>
     <t>avg_base_passenger_fare_resid</t>
@@ -710,7 +710,7 @@
     <t>avg_trip_time_min</t>
   </si>
   <si>
-    <t>demand_resid</t>
+    <t>demand_resid_lag1</t>
   </si>
   <si>
     <t>***</t>
@@ -1257,22 +1257,22 @@
         <v>177</v>
       </c>
       <c r="C6">
-        <v>0.001127687302402092</v>
+        <v>0.0004820626062523869</v>
       </c>
       <c r="D6">
-        <v>0.0005680949703585902</v>
+        <v>2.856081977609115E-05</v>
       </c>
       <c r="E6">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F6">
-        <v>0.09253602888493258</v>
+        <v>0.04810519073000762</v>
       </c>
       <c r="G6" t="s">
         <v>193</v>
       </c>
       <c r="I6">
-        <v>0.1559059367868518</v>
+        <v>0.302649984619503</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1312,22 +1312,22 @@
         <v>177</v>
       </c>
       <c r="C8">
-        <v>6.028403695068629E-05</v>
+        <v>5.71617213618314E-06</v>
       </c>
       <c r="D8">
-        <v>-0.0004999062801154253</v>
+        <v>-0.0004480017424861593</v>
       </c>
       <c r="E8">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F8">
-        <v>-0.005407318000881853</v>
+        <v>-0.001607224793319684</v>
       </c>
       <c r="G8" t="s">
         <v>195</v>
       </c>
       <c r="I8">
-        <v>0.7429161450573908</v>
+        <v>0.9106408707467917</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1512,16 +1512,16 @@
         <v>177</v>
       </c>
       <c r="C15">
-        <v>0.05963721310967118</v>
+        <v>0.03734270941851825</v>
       </c>
       <c r="D15">
-        <v>0.05947223718214667</v>
+        <v>0.03717379254001651</v>
       </c>
       <c r="E15">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F15">
-        <v>0.01188338141742419</v>
+        <v>0.009404446189675234</v>
       </c>
       <c r="G15" t="s">
         <v>202</v>
@@ -1530,7 +1530,7 @@
         <v>203</v>
       </c>
       <c r="I15">
-        <v>3.36527185922998E-78</v>
+        <v>4.351088914158013E-49</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1657,22 +1657,22 @@
         <v>178</v>
       </c>
       <c r="C20">
-        <v>0.0001627903793228747</v>
+        <v>1.422939158945979E-05</v>
       </c>
       <c r="D20">
-        <v>-0.0003973425112209217</v>
+        <v>-0.0004394846604107716</v>
       </c>
       <c r="E20">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F20">
-        <v>0.02758185210000451</v>
+        <v>-0.006409743820749567</v>
       </c>
       <c r="G20" t="s">
         <v>193</v>
       </c>
       <c r="I20">
-        <v>0.5898855153575606</v>
+        <v>0.8594514024544303</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1712,22 +1712,22 @@
         <v>178</v>
       </c>
       <c r="C22">
-        <v>0.00128138753230711</v>
+        <v>0.001095604246666326</v>
       </c>
       <c r="D22">
-        <v>0.0007218813068350372</v>
+        <v>0.0006423808366149419</v>
       </c>
       <c r="E22">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F22">
-        <v>-0.01955750901428398</v>
+        <v>-0.01725671455771606</v>
       </c>
       <c r="G22" t="s">
         <v>195</v>
       </c>
       <c r="I22">
-        <v>0.1303692186999612</v>
+        <v>0.1201405624581729</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1909,16 +1909,16 @@
         <v>178</v>
       </c>
       <c r="C29">
-        <v>0.03999362579806554</v>
+        <v>0.02657473245554853</v>
       </c>
       <c r="D29">
-        <v>0.03982520362715303</v>
+        <v>0.02640392612679887</v>
       </c>
       <c r="E29">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F29">
-        <v>0.007434866518567309</v>
+        <v>0.006061450128795854</v>
       </c>
       <c r="G29" t="s">
         <v>202</v>
@@ -1927,7 +1927,7 @@
         <v>203</v>
       </c>
       <c r="I29">
-        <v>1.593717129192756E-52</v>
+        <v>3.001527009906297E-35</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2051,16 +2051,16 @@
         <v>179</v>
       </c>
       <c r="C34">
-        <v>0.0029291909977055</v>
+        <v>0.001818051223120509</v>
       </c>
       <c r="D34">
-        <v>0.002370607911429734</v>
+        <v>0.001365155602078394</v>
       </c>
       <c r="E34">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F34">
-        <v>0.008881211149289518</v>
+        <v>0.005638685309712869</v>
       </c>
       <c r="G34" t="s">
         <v>193</v>
@@ -2069,7 +2069,7 @@
         <v>205</v>
       </c>
       <c r="I34">
-        <v>0.0221391943051536</v>
+        <v>0.0452386052183292</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2109,22 +2109,22 @@
         <v>179</v>
       </c>
       <c r="C36">
-        <v>0.0005282908666799369</v>
+        <v>0.0002971701468098553</v>
       </c>
       <c r="D36">
-        <v>-3.163726168597947E-05</v>
+        <v>-0.0001564155291671199</v>
       </c>
       <c r="E36">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F36">
-        <v>0.0009532331466390649</v>
+        <v>0.0006994571995907134</v>
       </c>
       <c r="G36" t="s">
         <v>195</v>
       </c>
       <c r="I36">
-        <v>0.3315115598066956</v>
+        <v>0.418362053786157</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2309,16 +2309,16 @@
         <v>179</v>
       </c>
       <c r="C43">
-        <v>0.04569037144299304</v>
+        <v>0.01644484090972453</v>
       </c>
       <c r="D43">
-        <v>0.04552294870114104</v>
+        <v>0.01627225709517977</v>
       </c>
       <c r="E43">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F43">
-        <v>0.0006216713652544177</v>
+        <v>0.0003728915106133646</v>
       </c>
       <c r="G43" t="s">
         <v>202</v>
@@ -2327,7 +2327,7 @@
         <v>203</v>
       </c>
       <c r="I43">
-        <v>6.412330962279849E-60</v>
+        <v>2.46331034796507E-22</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2448,22 +2448,22 @@
         <v>180</v>
       </c>
       <c r="C48">
-        <v>0.0002233733161256524</v>
+        <v>0.0004297867909581754</v>
       </c>
       <c r="D48">
-        <v>-0.0003367256343975722</v>
+        <v>-2.373871412753026E-05</v>
       </c>
       <c r="E48">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F48">
-        <v>0.0009092131835513936</v>
+        <v>0.001047717634320139</v>
       </c>
       <c r="G48" t="s">
         <v>193</v>
       </c>
       <c r="I48">
-        <v>0.5277850899976136</v>
+        <v>0.3304231353151992</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2500,16 +2500,16 @@
         <v>180</v>
       </c>
       <c r="C50">
-        <v>0.00366985933903119</v>
+        <v>0.002742798506978006</v>
       </c>
       <c r="D50">
-        <v>0.003111691193002586</v>
+        <v>0.00229032246274341</v>
       </c>
       <c r="E50">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F50">
-        <v>0.0009314059803348279</v>
+        <v>0.0008120792791653784</v>
       </c>
       <c r="G50" t="s">
         <v>195</v>
@@ -2518,7 +2518,7 @@
         <v>205</v>
       </c>
       <c r="I50">
-        <v>0.01042429866941124</v>
+        <v>0.01389007810988713</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2697,16 +2697,16 @@
         <v>180</v>
       </c>
       <c r="C57">
-        <v>0.01835410312747399</v>
+        <v>0.01284783091871189</v>
       </c>
       <c r="D57">
-        <v>0.01818188454907532</v>
+        <v>0.01267461593905206</v>
       </c>
       <c r="E57">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F57">
-        <v>0.0001543671567322453</v>
+        <v>0.0001291763908381624</v>
       </c>
       <c r="G57" t="s">
         <v>202</v>
@@ -2715,7 +2715,7 @@
         <v>203</v>
       </c>
       <c r="I57">
-        <v>9.109054802823792E-25</v>
+        <v>9.15047310090453E-18</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2842,22 +2842,22 @@
         <v>181</v>
       </c>
       <c r="C62">
-        <v>0.001029565998324822</v>
+        <v>0.0001505894935913688</v>
       </c>
       <c r="D62">
-        <v>0.0004699186963631474</v>
+        <v>-0.0003030626890341281</v>
       </c>
       <c r="E62">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F62">
-        <v>0.002969459417386145</v>
+        <v>0.0009186491993212885</v>
       </c>
       <c r="G62" t="s">
         <v>193</v>
       </c>
       <c r="I62">
-        <v>0.1751612338204477</v>
+        <v>0.5645723847831525</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2894,22 +2894,25 @@
         <v>181</v>
       </c>
       <c r="C64">
-        <v>0.0008305886088721959</v>
+        <v>0.001345970604358815</v>
       </c>
       <c r="D64">
-        <v>0.0002708298349836102</v>
+        <v>0.0008928607906584229</v>
       </c>
       <c r="E64">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F64">
-        <v>-0.000674073910091725</v>
+        <v>-0.0008426629653477702</v>
       </c>
       <c r="G64" t="s">
         <v>195</v>
       </c>
+      <c r="H64" t="s">
+        <v>204</v>
+      </c>
       <c r="I64">
-        <v>0.2233367399431667</v>
+        <v>0.08493497392133127</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3094,16 +3097,16 @@
         <v>181</v>
       </c>
       <c r="C71">
-        <v>0.03838983632904436</v>
+        <v>0.01240121016038653</v>
       </c>
       <c r="D71">
-        <v>0.03822113279155825</v>
+        <v>0.01222791681245894</v>
       </c>
       <c r="E71">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F71">
-        <v>0.0003458852502338757</v>
+        <v>0.0001965525668964779</v>
       </c>
       <c r="G71" t="s">
         <v>202</v>
@@ -3112,7 +3115,7 @@
         <v>203</v>
       </c>
       <c r="I71">
-        <v>1.893503763902524E-50</v>
+        <v>3.378283688457777E-17</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3233,22 +3236,22 @@
         <v>182</v>
       </c>
       <c r="C76">
-        <v>0.0003161370196047564</v>
+        <v>0.000176482342817863</v>
       </c>
       <c r="D76">
-        <v>-0.0002439099624571561</v>
+        <v>-0.0002771580916907102</v>
       </c>
       <c r="E76">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F76">
-        <v>-0.0006049848572186177</v>
+        <v>-0.0003791529930461927</v>
       </c>
       <c r="G76" t="s">
         <v>193</v>
       </c>
       <c r="I76">
-        <v>0.4525586190533103</v>
+        <v>0.5328712380484828</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3285,22 +3288,22 @@
         <v>182</v>
       </c>
       <c r="C78">
-        <v>0.0001428218767823841</v>
+        <v>3.581982099110093E-05</v>
       </c>
       <c r="D78">
-        <v>-0.0004173222005976474</v>
+        <v>-0.0004178844349884692</v>
       </c>
       <c r="E78">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F78">
-        <v>0.0001027704904701633</v>
+        <v>5.240941587472132E-05</v>
       </c>
       <c r="G78" t="s">
         <v>195</v>
       </c>
       <c r="I78">
-        <v>0.6136570087774911</v>
+        <v>0.7787521778761799</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3479,16 +3482,16 @@
         <v>182</v>
       </c>
       <c r="C85">
-        <v>0.01007213936006224</v>
+        <v>0.01014006427766934</v>
       </c>
       <c r="D85">
-        <v>0.009898467805564026</v>
+        <v>0.00996637416787427</v>
       </c>
       <c r="E85">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F85">
-        <v>6.423730656927138E-05</v>
+        <v>6.446336256453391E-05</v>
       </c>
       <c r="G85" t="s">
         <v>202</v>
@@ -3497,7 +3500,7 @@
         <v>203</v>
       </c>
       <c r="I85">
-        <v>3.057345778118106E-14</v>
+        <v>2.519127811128303E-14</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3615,16 +3618,16 @@
         <v>183</v>
       </c>
       <c r="C90">
-        <v>0.002799862408431997</v>
+        <v>0.002750965872805544</v>
       </c>
       <c r="D90">
-        <v>0.002241206869165069</v>
+        <v>0.002298493534272361</v>
       </c>
       <c r="E90">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F90">
-        <v>0.005911751731903364</v>
+        <v>0.004720036110391575</v>
       </c>
       <c r="G90" t="s">
         <v>193</v>
@@ -3633,7 +3636,7 @@
         <v>205</v>
       </c>
       <c r="I90">
-        <v>0.0252981226972262</v>
+        <v>0.01374886367053766</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3673,25 +3676,25 @@
         <v>183</v>
       </c>
       <c r="C92">
-        <v>0.003321351671718542</v>
+        <v>0.003119345513523997</v>
       </c>
       <c r="D92">
-        <v>0.00276298828329935</v>
+        <v>0.002667040316388647</v>
       </c>
       <c r="E92">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F92">
-        <v>0.001627307056730786</v>
+        <v>0.001542120164938479</v>
       </c>
       <c r="G92" t="s">
         <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I92">
-        <v>0.01482777063127328</v>
+        <v>0.008695995158719324</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3870,16 +3873,16 @@
         <v>183</v>
       </c>
       <c r="C99">
-        <v>0.021597158418869</v>
+        <v>0.008829004840085197</v>
       </c>
       <c r="D99">
-        <v>0.02142550879753902</v>
+        <v>0.0086550846795026</v>
       </c>
       <c r="E99">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F99">
-        <v>0.000275786115020542</v>
+        <v>0.0001763389437168867</v>
       </c>
       <c r="G99" t="s">
         <v>202</v>
@@ -3888,7 +3891,7 @@
         <v>203</v>
       </c>
       <c r="I99">
-        <v>6.743122252576914E-29</v>
+        <v>1.170282603245048E-12</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4006,22 +4009,25 @@
         <v>184</v>
       </c>
       <c r="C104">
-        <v>0.0006065583188358259</v>
+        <v>0.00124883645953433</v>
       </c>
       <c r="D104">
-        <v>4.667403778191304E-05</v>
+        <v>0.0007956825740804696</v>
       </c>
       <c r="E104">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F104">
-        <v>-0.0004943740482198326</v>
+        <v>-0.0005732854829795997</v>
       </c>
       <c r="G104" t="s">
         <v>193</v>
       </c>
+      <c r="H104" t="s">
+        <v>204</v>
+      </c>
       <c r="I104">
-        <v>0.2980872408150796</v>
+        <v>0.09703991111584129</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4058,16 +4064,16 @@
         <v>184</v>
       </c>
       <c r="C106">
-        <v>0.002254382785829678</v>
+        <v>0.0021713956815399</v>
       </c>
       <c r="D106">
-        <v>0.001695421655737661</v>
+        <v>0.001718660380125026</v>
       </c>
       <c r="E106">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F106">
-        <v>-0.0002408781722166571</v>
+        <v>-0.0002319377287364497</v>
       </c>
       <c r="G106" t="s">
         <v>195</v>
@@ -4076,7 +4082,7 @@
         <v>205</v>
       </c>
       <c r="I106">
-        <v>0.04476454948402363</v>
+        <v>0.02862753824259119</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4255,16 +4261,16 @@
         <v>184</v>
       </c>
       <c r="C113">
-        <v>0.0059086614218955</v>
+        <v>0.004150157917374164</v>
       </c>
       <c r="D113">
-        <v>0.005734259432671363</v>
+        <v>0.003975416762420192</v>
       </c>
       <c r="E113">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F113">
-        <v>-2.523440237607935E-05</v>
+        <v>-2.115194495965679E-05</v>
       </c>
       <c r="G113" t="s">
         <v>202</v>
@@ -4273,7 +4279,7 @@
         <v>203</v>
       </c>
       <c r="I113">
-        <v>6.182743487351701E-09</v>
+        <v>1.126476731489159E-06</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4388,22 +4394,22 @@
         <v>185</v>
       </c>
       <c r="C118">
-        <v>1.865517291388397E-05</v>
+        <v>8.970204958935746E-05</v>
       </c>
       <c r="D118">
-        <v>-0.0005415584656447425</v>
+        <v>-0.0003639777589181659</v>
       </c>
       <c r="E118">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F118">
-        <v>0.003561781758454708</v>
+        <v>-0.00605105042873018</v>
       </c>
       <c r="G118" t="s">
         <v>193</v>
       </c>
       <c r="I118">
-        <v>0.8552242881672044</v>
+        <v>0.6566103290017902</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4440,22 +4446,22 @@
         <v>185</v>
       </c>
       <c r="C120">
-        <v>0.0002318019749993905</v>
+        <v>0.0001004503311183846</v>
       </c>
       <c r="D120">
-        <v>-0.0003282922535861044</v>
+        <v>-0.0003532246006732187</v>
       </c>
       <c r="E120">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F120">
-        <v>-0.003173149004588796</v>
+        <v>-0.001964667363361803</v>
       </c>
       <c r="G120" t="s">
         <v>195</v>
       </c>
       <c r="I120">
-        <v>0.5200981901821191</v>
+        <v>0.6380106032265704</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4631,16 +4637,16 @@
         <v>185</v>
       </c>
       <c r="C127">
-        <v>0.005929879326272092</v>
+        <v>0.00723759727465112</v>
       </c>
       <c r="D127">
-        <v>0.005755481059487311</v>
+        <v>0.007063397870768817</v>
       </c>
       <c r="E127">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F127">
-        <v>0.001004034616409023</v>
+        <v>0.001109422049097588</v>
       </c>
       <c r="G127" t="s">
         <v>202</v>
@@ -4649,7 +4655,7 @@
         <v>203</v>
       </c>
       <c r="I127">
-        <v>5.807975032456189E-09</v>
+        <v>1.244752742000427E-10</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4776,22 +4782,22 @@
         <v>186</v>
       </c>
       <c r="C132">
-        <v>0.0003797268875488369</v>
+        <v>2.949438918109504E-05</v>
       </c>
       <c r="D132">
-        <v>-0.0001802844699372308</v>
+        <v>-0.0004242127367766191</v>
       </c>
       <c r="E132">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F132">
-        <v>0.03073570896524509</v>
+        <v>0.006755334262182949</v>
       </c>
       <c r="G132" t="s">
         <v>193</v>
       </c>
       <c r="I132">
-        <v>0.4103621150539282</v>
+        <v>0.7987733144465421</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4831,16 +4837,16 @@
         <v>186</v>
       </c>
       <c r="C134">
-        <v>0.002888264278389063</v>
+        <v>0.002144167649635431</v>
       </c>
       <c r="D134">
-        <v>0.00232965826397924</v>
+        <v>0.001691419994304111</v>
       </c>
       <c r="E134">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F134">
-        <v>-0.0214234918780247</v>
+        <v>-0.01767218563994609</v>
       </c>
       <c r="G134" t="s">
         <v>195</v>
@@ -4849,7 +4855,7 @@
         <v>205</v>
       </c>
       <c r="I134">
-        <v>0.02309207065988911</v>
+        <v>0.02964525898796763</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5034,16 +5040,16 @@
         <v>186</v>
       </c>
       <c r="C141">
-        <v>0.02769757766653591</v>
+        <v>0.01709507997804161</v>
       </c>
       <c r="D141">
-        <v>0.0275269982941968</v>
+        <v>0.01692261026054342</v>
       </c>
       <c r="E141">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F141">
-        <v>0.004747849729801704</v>
+        <v>0.003730404336854238</v>
       </c>
       <c r="G141" t="s">
         <v>202</v>
@@ -5052,7 +5058,7 @@
         <v>203</v>
       </c>
       <c r="I141">
-        <v>1.081501005750852E-36</v>
+        <v>3.671607117750679E-23</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5176,22 +5182,22 @@
         <v>187</v>
       </c>
       <c r="C146">
-        <v>0.0007190946532688036</v>
+        <v>0.0003338969315106466</v>
       </c>
       <c r="D146">
-        <v>0.0001592734177804367</v>
+        <v>-0.0001196720807707941</v>
       </c>
       <c r="E146">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F146">
-        <v>-0.02522807146802618</v>
+        <v>-0.01390484879483404</v>
       </c>
       <c r="G146" t="s">
         <v>193</v>
       </c>
       <c r="I146">
-        <v>0.2572147941040341</v>
+        <v>0.3909887682032037</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5231,22 +5237,22 @@
         <v>187</v>
       </c>
       <c r="C148">
-        <v>0.00017167620609293</v>
+        <v>0.0001811480591683567</v>
       </c>
       <c r="D148">
-        <v>-0.0003884517063965642</v>
+        <v>-0.0002724902584090305</v>
       </c>
       <c r="E148">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F148">
-        <v>0.003115374857769706</v>
+        <v>0.00314239412818678</v>
       </c>
       <c r="G148" t="s">
         <v>195</v>
       </c>
       <c r="I148">
-        <v>0.5799085564384741</v>
+        <v>0.5275048107151916</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5431,25 +5437,25 @@
         <v>187</v>
       </c>
       <c r="C155">
-        <v>0.005472069104485167</v>
+        <v>0.0004785214362489354</v>
       </c>
       <c r="D155">
-        <v>0.005297590520117579</v>
+        <v>0.0003031360215158818</v>
       </c>
       <c r="E155">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F155">
-        <v>-0.001236545326009429</v>
+        <v>-0.0003656590814343773</v>
       </c>
       <c r="G155" t="s">
         <v>202</v>
       </c>
       <c r="H155" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I155">
-        <v>2.240945789736468E-08</v>
+        <v>0.09863313512645328</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5573,22 +5579,22 @@
         <v>188</v>
       </c>
       <c r="C160">
-        <v>0.001048984665549035</v>
+        <v>0.0003798072395724272</v>
       </c>
       <c r="D160">
-        <v>0.00048934824239244</v>
+        <v>-7.374094226086925E-05</v>
       </c>
       <c r="E160">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F160">
-        <v>-0.03266546649731072</v>
+        <v>-0.01602422547410667</v>
       </c>
       <c r="G160" t="s">
         <v>193</v>
       </c>
       <c r="I160">
-        <v>0.1711437942747298</v>
+        <v>0.3602377483924962</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5628,22 +5634,22 @@
         <v>188</v>
       </c>
       <c r="C162">
-        <v>2.402962797209973E-05</v>
+        <v>4.540999031354964E-06</v>
       </c>
       <c r="D162">
-        <v>-0.0005361809996873301</v>
+        <v>-0.0004491774487911382</v>
       </c>
       <c r="E162">
-        <v>1787</v>
+        <v>2206</v>
       </c>
       <c r="F162">
-        <v>0.001249516665081451</v>
+        <v>0.0005375945877867077</v>
       </c>
       <c r="G162" t="s">
         <v>195</v>
       </c>
       <c r="I162">
-        <v>0.8359487735453204</v>
+        <v>0.9203200581521601</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5825,16 +5831,16 @@
         <v>188</v>
       </c>
       <c r="C169">
-        <v>0.01023030783516721</v>
+        <v>0.002148589782491994</v>
       </c>
       <c r="D169">
-        <v>0.01005666402952432</v>
+        <v>0.001973497413617187</v>
       </c>
       <c r="E169">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="F169">
-        <v>-0.001831299266876504</v>
+        <v>-0.0008392616317662795</v>
       </c>
       <c r="G169" t="s">
         <v>202</v>
@@ -5843,7 +5849,7 @@
         <v>203</v>
       </c>
       <c r="I169">
-        <v>1.924376522739237E-14</v>
+        <v>0.0004635381073384792</v>
       </c>
     </row>
   </sheetData>
@@ -5945,16 +5951,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>2.058422876594079E-14</v>
+        <v>-0.0008301497719366661</v>
       </c>
       <c r="C2">
-        <v>0.06980477508858646</v>
+        <v>0.07030072559808678</v>
       </c>
       <c r="D2">
-        <v>2.948828176842941E-13</v>
+        <v>-0.01180855197260238</v>
       </c>
       <c r="E2">
-        <v>0.9999999999997647</v>
+        <v>0.9905787709898686</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5962,16 +5968,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.007434866518567309</v>
+        <v>0.006061450128795854</v>
       </c>
       <c r="C3">
-        <v>0.0004824778908404693</v>
+        <v>0.0004859527733096299</v>
       </c>
       <c r="D3">
-        <v>15.40975588667054</v>
+        <v>12.47333169335313</v>
       </c>
       <c r="E3">
-        <v>1.593717129192756E-52</v>
+        <v>3.001527009906297E-35</v>
       </c>
     </row>
   </sheetData>
@@ -6137,16 +6143,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.02909253474078385</v>
+        <v>-0.02044723797407234</v>
       </c>
       <c r="C2">
-        <v>0.03202261598520258</v>
+        <v>0.029225561821199</v>
       </c>
       <c r="D2">
-        <v>-0.9084996289568379</v>
+        <v>-0.6996354116019342</v>
       </c>
       <c r="E2">
-        <v>0.3637369502365166</v>
+        <v>0.4842288545778364</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6154,16 +6160,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.0009532331466390649</v>
+        <v>0.0006994571995907134</v>
       </c>
       <c r="C3">
-        <v>0.0009813608465813479</v>
+        <v>0.0008641481827863821</v>
       </c>
       <c r="D3">
-        <v>0.9713380658701962</v>
+        <v>0.8094181224050779</v>
       </c>
       <c r="E3">
-        <v>0.3315115598066956</v>
+        <v>0.418362053786157</v>
       </c>
     </row>
   </sheetData>
@@ -6521,16 +6527,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-2.55351295663786E-15</v>
+        <v>-0.001462315143358581</v>
       </c>
       <c r="C2">
-        <v>0.09042725989272173</v>
+        <v>0.0915024198510566</v>
       </c>
       <c r="D2">
-        <v>-2.823830955031942E-14</v>
+        <v>-0.01598116362101537</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999775</v>
+        <v>0.9872499784471331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6538,16 +6544,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.01188338141742419</v>
+        <v>0.009404446189675234</v>
       </c>
       <c r="C3">
-        <v>0.0006250167495297468</v>
+        <v>0.0006325091855435019</v>
       </c>
       <c r="D3">
-        <v>19.01290073644437</v>
+        <v>14.86847369907236</v>
       </c>
       <c r="E3">
-        <v>3.36527185922998E-78</v>
+        <v>4.351088914158013E-49</v>
       </c>
     </row>
   </sheetData>
@@ -6585,16 +6591,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-1.242062008799394E-15</v>
+        <v>-0.0001654061386047747</v>
       </c>
       <c r="C2">
-        <v>0.005444568418432871</v>
+        <v>0.005526286959172856</v>
       </c>
       <c r="D2">
-        <v>-2.281286436945724E-13</v>
+        <v>-0.02993079075096234</v>
       </c>
       <c r="E2">
-        <v>0.9999999999998179</v>
+        <v>0.976123297432302</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6602,16 +6608,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.0006216713652544177</v>
+        <v>0.0003728915106133646</v>
       </c>
       <c r="C3">
-        <v>3.7631865208769E-05</v>
+        <v>3.820038059447819E-05</v>
       </c>
       <c r="D3">
-        <v>16.51981271206178</v>
+        <v>9.761460614014551</v>
       </c>
       <c r="E3">
-        <v>6.412330962279849E-60</v>
+        <v>2.46331034796507E-22</v>
       </c>
     </row>
   </sheetData>
@@ -6777,16 +6783,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.03068417823018428</v>
+        <v>-0.02672685893136393</v>
       </c>
       <c r="C2">
-        <v>0.01185290810399253</v>
+        <v>0.01115511161794954</v>
       </c>
       <c r="D2">
-        <v>-2.588746825755667</v>
+        <v>-2.395929314446132</v>
       </c>
       <c r="E2">
-        <v>0.009710823776840113</v>
+        <v>0.01666121012409239</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6794,16 +6800,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.0009314059803348279</v>
+        <v>0.0008120792791653784</v>
       </c>
       <c r="C3">
-        <v>0.0003632426512799605</v>
+        <v>0.0003298369246896099</v>
       </c>
       <c r="D3">
-        <v>2.564142666211764</v>
+        <v>2.462062972269033</v>
       </c>
       <c r="E3">
-        <v>0.01042429866941124</v>
+        <v>0.01389007810988713</v>
       </c>
     </row>
   </sheetData>
@@ -7289,16 +7295,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-2.930598472228318E-16</v>
+        <v>-2.914875303295142E-06</v>
       </c>
       <c r="C2">
-        <v>0.002163396069840328</v>
+        <v>0.002169834979885948</v>
       </c>
       <c r="D2">
-        <v>-1.354628730764319E-13</v>
+        <v>-0.001343362665970274</v>
       </c>
       <c r="E2">
-        <v>0.9999999999998919</v>
+        <v>0.9989281990097952</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7306,16 +7312,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.0001543671567322453</v>
+        <v>0.0001291763908381624</v>
       </c>
       <c r="C3">
-        <v>1.495299958354552E-05</v>
+        <v>1.499895366838884E-05</v>
       </c>
       <c r="D3">
-        <v>10.3234910072567</v>
+        <v>8.612360148188806</v>
       </c>
       <c r="E3">
-        <v>9.109054802823792E-25</v>
+        <v>9.15047310090453E-18</v>
       </c>
     </row>
   </sheetData>
@@ -7481,16 +7487,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>0.02314908362854877</v>
+        <v>0.02761727156690575</v>
       </c>
       <c r="C2">
-        <v>0.01805689480927119</v>
+        <v>0.01653531610020791</v>
       </c>
       <c r="D2">
-        <v>1.282008001545373</v>
+        <v>1.670199190601413</v>
       </c>
       <c r="E2">
-        <v>0.2000063199237954</v>
+        <v>0.09502195282186812</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7498,16 +7504,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>-0.000674073910091725</v>
+        <v>-0.0008426629653477702</v>
       </c>
       <c r="C3">
-        <v>0.0005533692058401835</v>
+        <v>0.0004889200572845259</v>
       </c>
       <c r="D3">
-        <v>-1.218126890650294</v>
+        <v>-1.723518912330865</v>
       </c>
       <c r="E3">
-        <v>0.2233367399431667</v>
+        <v>0.08493497392133127</v>
       </c>
     </row>
   </sheetData>
@@ -7801,16 +7807,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-1.090707385520417E-15</v>
+        <v>-9.825709449403589E-05</v>
       </c>
       <c r="C2">
-        <v>0.00331736854273217</v>
+        <v>0.003361269810148825</v>
       </c>
       <c r="D2">
-        <v>-3.2878691995497E-13</v>
+        <v>-0.02923213548563227</v>
       </c>
       <c r="E2">
-        <v>0.9999999999997377</v>
+        <v>0.9766804753383633</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7818,16 +7824,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.0003458852502338757</v>
+        <v>0.0001965525668964779</v>
       </c>
       <c r="C3">
-        <v>2.29290471261706E-05</v>
+        <v>2.323473011391233E-05</v>
       </c>
       <c r="D3">
-        <v>15.08502504838465</v>
+        <v>8.459429738707726</v>
       </c>
       <c r="E3">
-        <v>1.893503763902524E-50</v>
+        <v>3.378283688457777E-17</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8063,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.003832553576543199</v>
+        <v>-0.002460444889186443</v>
       </c>
       <c r="C2">
-        <v>0.006641237567862225</v>
+        <v>0.006308246973089755</v>
       </c>
       <c r="D2">
-        <v>-0.5770842463292388</v>
+        <v>-0.390036233470632</v>
       </c>
       <c r="E2">
-        <v>0.5639553177374186</v>
+        <v>0.6965474428682494</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8074,16 +8080,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.0001027704904701633</v>
+        <v>5.240941587472132E-05</v>
       </c>
       <c r="C3">
-        <v>0.000203526486560523</v>
+        <v>0.0001865237079688607</v>
       </c>
       <c r="D3">
-        <v>0.5049489735067101</v>
+        <v>0.2809799164161526</v>
       </c>
       <c r="E3">
-        <v>0.6136570087774911</v>
+        <v>0.7787521778761799</v>
       </c>
     </row>
   </sheetData>
@@ -8377,16 +8383,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-4.87890977618477E-17</v>
+        <v>7.451699291534082E-06</v>
       </c>
       <c r="C2">
-        <v>0.00122038966431186</v>
+        <v>0.001220522778566214</v>
       </c>
       <c r="D2">
-        <v>-3.997829479271964E-14</v>
+        <v>0.00610533406044894</v>
       </c>
       <c r="E2">
-        <v>0.999999999999968</v>
+        <v>0.9951288921703765</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8394,16 +8400,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>6.423730656927138E-05</v>
+        <v>6.446336256453391E-05</v>
       </c>
       <c r="C3">
-        <v>8.435111072178917E-06</v>
+        <v>8.436846477555678E-06</v>
       </c>
       <c r="D3">
-        <v>7.615466591915062</v>
+        <v>7.640694036097979</v>
       </c>
       <c r="E3">
-        <v>3.057345778118106E-14</v>
+        <v>2.519127811128303E-14</v>
       </c>
     </row>
   </sheetData>
@@ -8569,16 +8575,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.0522416183693325</v>
+        <v>-0.04806450954097793</v>
       </c>
       <c r="C2">
-        <v>0.02177201496609476</v>
+        <v>0.01985989333922823</v>
       </c>
       <c r="D2">
-        <v>-2.399484772111705</v>
+        <v>-2.420179641450468</v>
       </c>
       <c r="E2">
-        <v>0.01652011071994037</v>
+        <v>0.01559322592892003</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8586,16 +8592,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.001627307056730786</v>
+        <v>0.001542120164938479</v>
       </c>
       <c r="C3">
-        <v>0.0006672222859238512</v>
+        <v>0.0005872219273121699</v>
       </c>
       <c r="D3">
-        <v>2.438927912123888</v>
+        <v>2.626128373640722</v>
       </c>
       <c r="E3">
-        <v>0.01482777063127328</v>
+        <v>0.008695995158719324</v>
       </c>
     </row>
   </sheetData>
@@ -8633,16 +8639,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>0.5414410629475948</v>
+        <v>0.439667163789783</v>
       </c>
       <c r="C2">
-        <v>0.4217002262854487</v>
+        <v>0.3753721749475682</v>
       </c>
       <c r="D2">
-        <v>1.283947764782781</v>
+        <v>1.171283310626835</v>
       </c>
       <c r="E2">
-        <v>0.1993268641485308</v>
+        <v>0.2416115279579843</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8650,16 +8656,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>-0.01955750901428398</v>
+        <v>-0.01725671455771606</v>
       </c>
       <c r="C3">
-        <v>0.01292336926072081</v>
+        <v>0.01109909143352116</v>
       </c>
       <c r="D3">
-        <v>-1.513344439806957</v>
+        <v>-1.554786232826033</v>
       </c>
       <c r="E3">
-        <v>0.1303692186999612</v>
+        <v>0.1201405624581729</v>
       </c>
     </row>
   </sheetData>
@@ -8953,16 +8959,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-1.665334536937735E-16</v>
+        <v>-6.714904411076264E-05</v>
       </c>
       <c r="C2">
-        <v>0.003557158607688656</v>
+        <v>0.003580412494459317</v>
       </c>
       <c r="D2">
-        <v>-4.681642627174905E-14</v>
+        <v>-0.01875455529626145</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999627</v>
+        <v>0.9850375635899666</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8970,16 +8976,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.000275786115020542</v>
+        <v>0.0001763389437168867</v>
       </c>
       <c r="C3">
-        <v>2.458643237865344E-05</v>
+        <v>2.474955082572158E-05</v>
       </c>
       <c r="D3">
-        <v>11.21700419048948</v>
+        <v>7.124935113312121</v>
       </c>
       <c r="E3">
-        <v>6.743122252576914E-29</v>
+        <v>1.170282603245048E-12</v>
       </c>
     </row>
   </sheetData>
@@ -9017,16 +9023,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-1.26851654180804E-16</v>
+        <v>5.162265826465619E-06</v>
       </c>
       <c r="C2">
-        <v>0.0006272373390668857</v>
+        <v>0.0006278867812448357</v>
       </c>
       <c r="D2">
-        <v>-2.022386842746253E-13</v>
+        <v>0.008221650750842397</v>
       </c>
       <c r="E2">
-        <v>0.9999999999998386</v>
+        <v>0.9934404334745357</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9034,16 +9040,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>-2.523440237607935E-05</v>
+        <v>-2.115194495965679E-05</v>
       </c>
       <c r="C3">
-        <v>4.335350239655182E-06</v>
+        <v>4.340258511907716E-06</v>
       </c>
       <c r="D3">
-        <v>-5.820614478909183</v>
+        <v>-4.873429751160069</v>
       </c>
       <c r="E3">
-        <v>6.182743487351701E-09</v>
+        <v>1.126476731489159E-06</v>
       </c>
     </row>
   </sheetData>
@@ -9209,16 +9215,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>0.07348895808990022</v>
+        <v>0.01922893551390163</v>
       </c>
       <c r="C2">
-        <v>0.1609498326280243</v>
+        <v>0.1412083516269913</v>
       </c>
       <c r="D2">
-        <v>0.4565954303273035</v>
+        <v>0.136174208482341</v>
       </c>
       <c r="E2">
-        <v>0.6480174171083237</v>
+        <v>0.8916960001708973</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9226,16 +9232,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>-0.003173149004588796</v>
+        <v>-0.001964667363361803</v>
       </c>
       <c r="C3">
-        <v>0.004932447245345339</v>
+        <v>0.004175281255473185</v>
       </c>
       <c r="D3">
-        <v>-0.6433214278334631</v>
+        <v>-0.4705473100252613</v>
       </c>
       <c r="E3">
-        <v>0.5200981901821191</v>
+        <v>0.6380106032265704</v>
       </c>
     </row>
   </sheetData>
@@ -9657,16 +9663,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-2.731322112925483E-15</v>
+        <v>9.316484389948563E-05</v>
       </c>
       <c r="C2">
-        <v>0.02491176830588527</v>
+        <v>0.02489938732205337</v>
       </c>
       <c r="D2">
-        <v>-1.096398328447934E-13</v>
+        <v>0.003741652061332834</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999125</v>
+        <v>0.9970147315141772</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9674,16 +9680,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.001004034616409023</v>
+        <v>0.001109422049097588</v>
       </c>
       <c r="C3">
-        <v>0.0001721856049829925</v>
+        <v>0.0001721166633761141</v>
       </c>
       <c r="D3">
-        <v>5.831118208216045</v>
+        <v>6.445756194292749</v>
       </c>
       <c r="E3">
-        <v>5.807975032456189E-09</v>
+        <v>1.244752742000427E-10</v>
       </c>
     </row>
   </sheetData>
@@ -9849,16 +9855,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>0.623850871931599</v>
+        <v>0.5060567770186063</v>
       </c>
       <c r="C2">
-        <v>0.3074345543662166</v>
+        <v>0.2746399098927269</v>
       </c>
       <c r="D2">
-        <v>2.029215203924236</v>
+        <v>1.8426192217157</v>
       </c>
       <c r="E2">
-        <v>0.0425845006928498</v>
+        <v>0.06551885563870734</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9866,16 +9872,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>-0.0214234918780247</v>
+        <v>-0.01767218563994609</v>
       </c>
       <c r="C3">
-        <v>0.00942159861894497</v>
+        <v>0.008120616483145474</v>
       </c>
       <c r="D3">
-        <v>-2.273870151393024</v>
+        <v>-2.176212320410047</v>
       </c>
       <c r="E3">
-        <v>0.02309207065988911</v>
+        <v>0.02964525898796763</v>
       </c>
     </row>
   </sheetData>
@@ -10233,16 +10239,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>1.4210854715202E-14</v>
+        <v>-0.000839159761971589</v>
       </c>
       <c r="C2">
-        <v>0.05390723315769753</v>
+        <v>0.05420539424285171</v>
       </c>
       <c r="D2">
-        <v>2.63616844767942E-13</v>
+        <v>-0.01548111168073005</v>
       </c>
       <c r="E2">
-        <v>0.9999999999997897</v>
+        <v>0.9876488952923272</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10250,16 +10256,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>0.004747849729801704</v>
+        <v>0.003730404336854238</v>
       </c>
       <c r="C3">
-        <v>0.0003725969766676316</v>
+        <v>0.0003746940225233252</v>
       </c>
       <c r="D3">
-        <v>12.74258790896454</v>
+        <v>9.955868288830295</v>
       </c>
       <c r="E3">
-        <v>1.081501005750852E-36</v>
+        <v>3.671607117750679E-23</v>
       </c>
     </row>
   </sheetData>
@@ -10425,16 +10431,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.1095566455057495</v>
+        <v>-0.1141921905290508</v>
       </c>
       <c r="C2">
-        <v>0.1836229435627059</v>
+        <v>0.1681796038246679</v>
       </c>
       <c r="D2">
-        <v>-0.5966391964974506</v>
+        <v>-0.6789895322152113</v>
       </c>
       <c r="E2">
-        <v>0.5508239557027044</v>
+        <v>0.497215786811694</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10442,16 +10448,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.003115374857769706</v>
+        <v>0.00314239412818678</v>
       </c>
       <c r="C3">
-        <v>0.005627284398929973</v>
+        <v>0.004972773489042136</v>
       </c>
       <c r="D3">
-        <v>0.5536195857387435</v>
+        <v>0.6319198200181992</v>
       </c>
       <c r="E3">
-        <v>0.5799085564384741</v>
+        <v>0.5275048107151916</v>
       </c>
     </row>
   </sheetData>
@@ -10873,16 +10879,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>2.116362640691705E-15</v>
+        <v>0.0006606130556914662</v>
       </c>
       <c r="C2">
-        <v>0.03194574592340325</v>
+        <v>0.03202492672845347</v>
       </c>
       <c r="D2">
-        <v>6.62486531310346E-14</v>
+        <v>0.02062808952829002</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999472</v>
+        <v>0.9835430551703386</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10890,16 +10896,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>-0.001236545326009429</v>
+        <v>-0.0003656590814343773</v>
       </c>
       <c r="C3">
-        <v>0.00022080317707333</v>
+        <v>0.0002213718539365003</v>
       </c>
       <c r="D3">
-        <v>-5.600215279505539</v>
+        <v>-1.651786688018908</v>
       </c>
       <c r="E3">
-        <v>2.240945789736468E-08</v>
+        <v>0.09863313512645328</v>
       </c>
     </row>
   </sheetData>
@@ -11065,16 +11071,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-0.07224067453499125</v>
+        <v>-0.04594713271444478</v>
       </c>
       <c r="C2">
-        <v>0.1968667090476608</v>
+        <v>0.1817385462105189</v>
       </c>
       <c r="D2">
-        <v>-0.3669522129183458</v>
+        <v>-0.2528199640224997</v>
       </c>
       <c r="E2">
-        <v>0.7136981588762044</v>
+        <v>0.8004309163748473</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11082,16 +11088,16 @@
         <v>195</v>
       </c>
       <c r="B3">
-        <v>0.001249516665081451</v>
+        <v>0.0005375945877867077</v>
       </c>
       <c r="C3">
-        <v>0.00603315108122245</v>
+        <v>0.005373687438786617</v>
       </c>
       <c r="D3">
-        <v>0.2071084659176596</v>
+        <v>0.1000420277343293</v>
       </c>
       <c r="E3">
-        <v>0.8359487735453204</v>
+        <v>0.9203200581521601</v>
       </c>
     </row>
   </sheetData>
@@ -11385,16 +11391,16 @@
         <v>212</v>
       </c>
       <c r="B2">
-        <v>-1.730213194939267E-14</v>
+        <v>0.0006731200651136637</v>
       </c>
       <c r="C2">
-        <v>0.03451853324098265</v>
+        <v>0.03465931441462891</v>
       </c>
       <c r="D2">
-        <v>-5.012418062089168E-13</v>
+        <v>0.01942104385162203</v>
       </c>
       <c r="E2">
-        <v>0.9999999999996001</v>
+        <v>0.9845059028783758</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11402,16 +11408,16 @@
         <v>202</v>
       </c>
       <c r="B3">
-        <v>-0.001831299266876504</v>
+        <v>-0.0008392616317662795</v>
       </c>
       <c r="C3">
-        <v>0.00023858581439279</v>
+        <v>0.0002395820216293432</v>
       </c>
       <c r="D3">
-        <v>-7.675641871404765</v>
+        <v>-3.503024250562086</v>
       </c>
       <c r="E3">
-        <v>1.924376522739237E-14</v>
+        <v>0.0004635381073384792</v>
       </c>
     </row>
   </sheetData>
